--- a/data/densidadCityDs2.xlsx
+++ b/data/densidadCityDs2.xlsx
@@ -14,31 +14,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area KM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area   M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Density KM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Density  M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
+    <t xml:space="preserve">PUESTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIUDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POBLACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREA_X_KM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREA_X_M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENSIDAD_X_KM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENSIDAD_X_M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIO</t>
   </si>
   <si>
     <t xml:space="preserve">Manila</t>

--- a/data/densidadCityDs2.xlsx
+++ b/data/densidadCityDs2.xlsx
@@ -14,31 +14,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
-    <t xml:space="preserve">PUESTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIUDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POBLACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREA_X_KM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREA_X_M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DENSIDAD_X_KM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DENSIDAD_X_M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANIO</t>
+    <t xml:space="preserve">Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area KM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area   M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density KM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density  M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
   </si>
   <si>
     <t xml:space="preserve">Manila</t>
